--- a/biology/Botanique/Donatiaceae/Donatiaceae.xlsx
+++ b/biology/Botanique/Donatiaceae/Donatiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La petite famille des Donatiacées regroupe des plantes dicotylédones ; elle ne comprend que deux espèces appartenant au genre Donatia : Donatia fascicularis et Donatia novae-zelandiae.
 Ce sont des plantes herbacées naines, qui forment de larges coussins, originaires des tourbières de Patagonie (Terre de Feu), de Nouvelle-Zélande et de Tasmanie.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Donatia (en) donné en hommage au médecin, archéologue et botaniste italien Vitaliano Donati[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Donatia (en) donné en hommage au médecin, archéologue et botaniste italien Vitaliano Donati.
 </t>
         </is>
       </c>
@@ -543,12 +557,14 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification phylogénétique APG (1998)[2] accepte cette famille, et l'assigne à l'ordre des Asterales.
-Pour la classification phylogénétique APG II (2003)[3], cette famille est optionnelle : ces plantes peuvent aussi être incorporées dans les Stylidiacées.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification phylogénétique APG (1998) accepte cette famille, et l'assigne à l'ordre des Asterales.
+Pour la classification phylogénétique APG II (2003), cette famille est optionnelle : ces plantes peuvent aussi être incorporées dans les Stylidiacées.
 Le Angiosperm Phylogeny Website [18 décembre 2006] n'accepte pas cette famille.
-En classification phylogénétique APG III (2009)[4] cette famille est invalide et ses genres sont incorporés dans la famille Stylidiaceae.
+En classification phylogénétique APG III (2009) cette famille est invalide et ses genres sont incorporés dans la famille Stylidiaceae.
 </t>
         </is>
       </c>
